--- a/medicine/Sexualité et sexologie/Cinq_Secondes_avant_l'extase/Cinq_Secondes_avant_l'extase.xlsx
+++ b/medicine/Sexualité et sexologie/Cinq_Secondes_avant_l'extase/Cinq_Secondes_avant_l'extase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cinq_Secondes_avant_l%27extase</t>
+          <t>Cinq_Secondes_avant_l'extase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinq Secondes avant l'extase (タイム・アバンチュール 絶頂５秒前, Taimu abanchūru: Zecchō 5-byō mae?) est une comédie érotique japonaise réalisée par Yōjirō Takita, sortie en 1986.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cinq_Secondes_avant_l%27extase</t>
+          <t>Cinq_Secondes_avant_l'extase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tokyo, 1986. Chaque nuit, une jeune et charmante secrétaire, Etsuko, s'adonne aux plaisirs solitaires en pensant à son chef de service dont elle est amoureuse. Elle voudrait non seulement coucher avec lui mais aussi l'épouser. Jusqu'au jour où elle voit que sa meilleure amie et collègue Naoko couche avec lui. Dévastée, de retour chez elle après cette nouvelle, elle se livre à une masturbation frénétique. Plus excitée que jamais, elle atteint un orgasme si puissant que son corps se transforme en "énergie extatique" couplée avec les ondes d'une radio allumée et qui lui fait traverser le temps. Elle est projetée avec son chaton dans le futur, quinze ans plus tard, en décembre 2001. Vêtue d'un simple peignoir et de sa culotte, elle remarque très vite que les choses ont changé : son quartier a été victime d'un séisme, Clint Eastwood est annoncé président des États-Unis, et Naoko vit désormais avec son patron d'antan. Mais elle rencontre surtout son propre double plus âgée. Dans ce futur ultra-capitaliste, elle est malheureuse avec son mari Okano, un détective privé qui tombe amoureux d'elle plus jeune. Elle est sa propre rivale amoureuse ! Devenue une obsédée de la consommation et peu avenante avec son époux, Etsuko veut à tout prix retourner en 1986. Elle contacte donc un jeune ingénieur cherchant des cobayes pour tester sexuellement sa machine à voyager dans le temps...
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cinq_Secondes_avant_l%27extase</t>
+          <t>Cinq_Secondes_avant_l'extase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : タイム・アバンチュール 絶頂５秒前 (Taimu abanchūru: Zecchō 5-byō mae?)
-Titre français : Cinq Secondes avant l'extase[1]
+Titre français : Cinq Secondes avant l'extase
 Réalisation : Yōjirō Takita
 Scénario : Isao Takagi
 Montage : Shinji Yamada
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cinq_Secondes_avant_l%27extase</t>
+          <t>Cinq_Secondes_avant_l'extase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kozue Tanaka : Etsuko Tanaka
 Kaori Sugita : Naoko Tajima
